--- a/T2/datasets/IO/CCS.xlsx
+++ b/T2/datasets/IO/CCS.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1220,12 +1220,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1282,12 +1282,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1313,12 +1313,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1344,12 +1344,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,12 +1437,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1468,12 +1468,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1499,12 +1499,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1530,12 +1530,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1592,12 +1592,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1654,12 +1654,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Farmacia</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3886,12 +3886,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Nutrição</t>
+          <t>Nutricao</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3917,12 +3917,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Nutrição</t>
+          <t>Nutricao</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3948,12 +3948,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Nutrição</t>
+          <t>Nutricao</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3979,12 +3979,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Nutrição</t>
+          <t>Nutricao</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
